--- a/data/random_lines_ext/bs_auto2.xlsx
+++ b/data/random_lines_ext/bs_auto2.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8589385474860335</v>
+        <v>0.753766461808604</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>247.6266023072626</v>
+        <v>317496383.5891132</v>
       </c>
     </row>
   </sheetData>
